--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene\Documents\junior\COP4331\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E2EB6-4FAF-442A-B1C0-323DEAED9FF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC17A389-D3B4-4D02-9084-093A01E9B2AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="9576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2844" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2816,34 +2816,34 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3680,7 +3680,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3708,29 +3708,29 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="I1" s="105"/>
-      <c r="K1" s="149" t="s">
+      <c r="K1" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -3775,11 +3775,11 @@
       <c r="B4" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="145">
+      <c r="C4" s="149">
         <v>43479</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="87"/>
       <c r="G4" s="90" t="s">
         <v>68</v>
@@ -3789,56 +3789,56 @@
       </c>
       <c r="I4" s="88"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="142" t="str">
+      <c r="K4" s="141" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="142" t="str">
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="141" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="142" t="str">
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="141" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="142" t="str">
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="141" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="142" t="str">
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="142"/>
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="142"/>
+      <c r="AK4" s="142"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="141" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="144"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="142"/>
+      <c r="AP4" s="142"/>
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="143"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
@@ -3866,66 +3866,66 @@
       <c r="B5" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
       <c r="J5" s="48"/>
-      <c r="K5" s="146">
+      <c r="K5" s="144">
         <f>K6</f>
         <v>43479</v>
       </c>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="146">
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="144">
         <f>R6</f>
         <v>43486</v>
       </c>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="146">
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="144">
         <f>Y6</f>
         <v>43493</v>
       </c>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="146">
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="144">
         <f>AF6</f>
         <v>43500</v>
       </c>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="146">
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="144">
         <f>AM6</f>
         <v>43507</v>
       </c>
-      <c r="AN5" s="147"/>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="148"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="146"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
@@ -4844,17 +4844,17 @@
       </c>
       <c r="F15" s="80">
         <f t="shared" si="6"/>
-        <v>43485</v>
+        <v>43487</v>
       </c>
       <c r="G15" s="60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" s="61">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I15" s="62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="77"/>
       <c r="K15" s="83"/>
@@ -6610,6 +6610,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="13">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="AM5:AS5"/>
@@ -6617,12 +6623,6 @@
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H31">
@@ -6667,7 +6667,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E13 E20 G13:H13 G20:H20 H17 H15 H16 H21:H22" unlockedFormula="1"/>
+    <ignoredError sqref="H9 E13 E20 G13:H13 G20:H20 H17 H16 H21:H22" unlockedFormula="1"/>
     <ignoredError sqref="A20 A13" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>

--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene\Documents\GitHub\group3_contactmanager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC17A389-D3B4-4D02-9084-093A01E9B2AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20359659-3527-4079-A40D-5EAAA7C921B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2844" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="9576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
   <si>
     <t>WBS</t>
   </si>
@@ -1567,19 +1567,46 @@
     <t>Bryan &amp; Matthew</t>
   </si>
   <si>
-    <t>Protect against injection queries</t>
-  </si>
-  <si>
     <t>Test API (ARC/CURL)</t>
   </si>
   <si>
-    <t>Ensure javascript functionality</t>
-  </si>
-  <si>
-    <t>Nathan &amp; Chris</t>
-  </si>
-  <si>
     <t>Everyone</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Add/Edit/Delete - API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Login/Register/Search - API</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Set up contacts - API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Create HTML/CSS</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>SQL testing</t>
   </si>
 </sst>
 </file>
@@ -2816,34 +2843,34 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3676,11 +3703,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN44"/>
+  <dimension ref="A1:BN49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3708,29 +3735,29 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="I1" s="105"/>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -3775,11 +3802,11 @@
       <c r="B4" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="149">
+      <c r="C4" s="145">
         <v>43479</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="87"/>
       <c r="G4" s="90" t="s">
         <v>68</v>
@@ -3789,56 +3816,56 @@
       </c>
       <c r="I4" s="88"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="141" t="str">
+      <c r="K4" s="142" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="141" t="str">
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="142" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="141" t="str">
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="142" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="141" t="str">
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="142" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="141" t="str">
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+      <c r="AI4" s="143"/>
+      <c r="AJ4" s="143"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="142" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="142"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="143"/>
+      <c r="AN4" s="143"/>
+      <c r="AO4" s="143"/>
+      <c r="AP4" s="143"/>
+      <c r="AQ4" s="143"/>
+      <c r="AR4" s="143"/>
+      <c r="AS4" s="144"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
@@ -3866,66 +3893,66 @@
       <c r="B5" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
       <c r="J5" s="48"/>
-      <c r="K5" s="144">
+      <c r="K5" s="146">
         <f>K6</f>
         <v>43479</v>
       </c>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="144">
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="146">
         <f>R6</f>
         <v>43486</v>
       </c>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="144">
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="146">
         <f>Y6</f>
         <v>43493</v>
       </c>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="144">
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="146">
         <f>AF6</f>
         <v>43500</v>
       </c>
-      <c r="AG5" s="145"/>
-      <c r="AH5" s="145"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="145"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="144">
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="147"/>
+      <c r="AK5" s="147"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="146">
         <f>AM6</f>
         <v>43507</v>
       </c>
-      <c r="AN5" s="145"/>
-      <c r="AO5" s="145"/>
-      <c r="AP5" s="145"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="145"/>
-      <c r="AS5" s="146"/>
+      <c r="AN5" s="147"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="148"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
@@ -4309,7 +4336,7 @@
       <c r="G8" s="71"/>
       <c r="H8" s="72"/>
       <c r="I8" s="73" t="str">
-        <f t="shared" ref="I8:I22" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I25" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="76"/>
@@ -4457,7 +4484,7 @@
         <v>43479</v>
       </c>
       <c r="F10" s="80">
-        <f t="shared" ref="F10:F22" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F25" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>43479</v>
       </c>
       <c r="G10" s="60">
@@ -4765,17 +4792,17 @@
       </c>
       <c r="F14" s="80">
         <f t="shared" si="6"/>
-        <v>43484</v>
+        <v>43492</v>
       </c>
       <c r="G14" s="60">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H14" s="61">
         <v>0</v>
       </c>
       <c r="I14" s="62">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J14" s="77"/>
       <c r="K14" s="83"/>
@@ -4828,34 +4855,21 @@
       <c r="BF14" s="16"/>
     </row>
     <row r="15" spans="1:66" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+      <c r="A15" s="58" t="s">
+        <v>154</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D15" s="103"/>
-      <c r="E15" s="79">
-        <v>43484</v>
-      </c>
-      <c r="F15" s="80">
-        <f t="shared" si="6"/>
-        <v>43487</v>
-      </c>
-      <c r="G15" s="60">
-        <v>4</v>
-      </c>
-      <c r="H15" s="61">
-        <v>0.45</v>
-      </c>
-      <c r="I15" s="62">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="77"/>
       <c r="K15" s="83"/>
       <c r="L15" s="83"/>
@@ -4907,34 +4921,21 @@
       <c r="BF15" s="16"/>
     </row>
     <row r="16" spans="1:66" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+      <c r="A16" s="58" t="s">
+        <v>156</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D16" s="103"/>
-      <c r="E16" s="79">
-        <v>43486</v>
-      </c>
-      <c r="F16" s="80">
-        <f t="shared" si="6"/>
-        <v>43491</v>
-      </c>
-      <c r="G16" s="60">
-        <v>6</v>
-      </c>
-      <c r="H16" s="61">
-        <v>0</v>
-      </c>
-      <c r="I16" s="62">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="77"/>
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
@@ -4986,33 +4987,21 @@
       <c r="BF16" s="16"/>
     </row>
     <row r="17" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
-        <v>2.4</v>
+      <c r="A17" s="58" t="s">
+        <v>160</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" s="103"/>
-      <c r="E17" s="79">
-        <v>43486</v>
-      </c>
-      <c r="F17" s="80">
-        <f t="shared" si="6"/>
-        <v>43493</v>
-      </c>
-      <c r="G17" s="60">
-        <v>8</v>
-      </c>
-      <c r="H17" s="61">
-        <v>0</v>
-      </c>
-      <c r="I17" s="62">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="77"/>
       <c r="K17" s="83"/>
       <c r="L17" s="83"/>
@@ -5063,34 +5052,22 @@
       <c r="BE17" s="16"/>
       <c r="BF17" s="16"/>
     </row>
-    <row r="18" spans="1:58" s="53" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>149</v>
       </c>
       <c r="D18" s="103"/>
-      <c r="E18" s="79">
-        <v>43494</v>
-      </c>
-      <c r="F18" s="80">
-        <f t="shared" si="6"/>
-        <v>43498</v>
-      </c>
-      <c r="G18" s="60">
-        <v>5</v>
-      </c>
-      <c r="H18" s="61">
-        <v>0</v>
-      </c>
-      <c r="I18" s="62">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="77"/>
       <c r="K18" s="83"/>
       <c r="L18" s="83"/>
@@ -5142,34 +5119,35 @@
       <c r="BF18" s="16"/>
     </row>
     <row r="19" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>2.6</v>
+      <c r="A19" s="58" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.3</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="136"/>
+        <v>148</v>
+      </c>
+      <c r="D19" s="103"/>
       <c r="E19" s="79">
-        <v>43492</v>
-      </c>
-      <c r="F19" s="137">
+        <v>43484</v>
+      </c>
+      <c r="F19" s="80">
         <f t="shared" si="6"/>
-        <v>43497</v>
-      </c>
-      <c r="G19" s="138">
-        <v>6</v>
+        <v>43487</v>
+      </c>
+      <c r="G19" s="60">
+        <v>4</v>
       </c>
       <c r="H19" s="61">
-        <v>0</v>
-      </c>
-      <c r="I19" s="139">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J19" s="140"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="77"/>
       <c r="K19" s="83"/>
       <c r="L19" s="83"/>
       <c r="M19" s="83"/>
@@ -5220,62 +5198,65 @@
       <c r="BF19" s="16"/>
     </row>
     <row r="20" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+      <c r="A20" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="103"/>
+      <c r="E20" s="79">
+        <v>43486</v>
+      </c>
+      <c r="F20" s="80">
+        <v>43488</v>
+      </c>
+      <c r="G20" s="60">
         <v>3</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="85"/>
-      <c r="AH20" s="85"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="85"/>
-      <c r="AN20" s="85"/>
-      <c r="AO20" s="85"/>
-      <c r="AP20" s="85"/>
-      <c r="AQ20" s="85"/>
-      <c r="AR20" s="85"/>
-      <c r="AS20" s="85"/>
+      <c r="H20" s="61">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="83"/>
+      <c r="AJ20" s="83"/>
+      <c r="AK20" s="83"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="83"/>
+      <c r="AN20" s="83"/>
+      <c r="AO20" s="83"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="83"/>
+      <c r="AR20" s="83"/>
+      <c r="AS20" s="83"/>
       <c r="AT20" s="16"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
@@ -5293,24 +5274,24 @@
     <row r="21" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="79">
-        <v>43499</v>
+        <v>43488</v>
       </c>
       <c r="F21" s="80">
         <f t="shared" si="6"/>
-        <v>43503</v>
+        <v>43493</v>
       </c>
       <c r="G21" s="60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="61">
         <v>0</v>
@@ -5370,33 +5351,32 @@
       <c r="BF21" s="16"/>
     </row>
     <row r="22" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+      <c r="A22" s="58">
+        <v>2.5</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D22" s="103"/>
       <c r="E22" s="79">
-        <v>43504</v>
+        <v>43492</v>
       </c>
       <c r="F22" s="80">
         <f t="shared" si="6"/>
-        <v>43506</v>
+        <v>43498</v>
       </c>
       <c r="G22" s="60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H22" s="61">
         <v>0</v>
       </c>
       <c r="I22" s="62">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" s="77"/>
       <c r="K22" s="83"/>
@@ -5448,52 +5428,62 @@
       <c r="BE22" s="16"/>
       <c r="BF22" s="16"/>
     </row>
-    <row r="23" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="16"/>
-      <c r="AO23" s="16"/>
-      <c r="AP23" s="16"/>
-      <c r="AQ23" s="16"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="16"/>
+    <row r="23" spans="1:58" s="53" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J23" s="78"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="85"/>
+      <c r="AL23" s="85"/>
+      <c r="AM23" s="85"/>
+      <c r="AN23" s="85"/>
+      <c r="AO23" s="85"/>
+      <c r="AP23" s="85"/>
+      <c r="AQ23" s="85"/>
+      <c r="AR23" s="85"/>
+      <c r="AS23" s="85"/>
       <c r="AT23" s="16"/>
       <c r="AU23" s="16"/>
       <c r="AV23" s="16"/>
@@ -5508,52 +5498,71 @@
       <c r="BE23" s="16"/>
       <c r="BF23" s="16"/>
     </row>
-    <row r="24" spans="1:58" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
+    <row r="24" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="103"/>
+      <c r="E24" s="79">
+        <v>43499</v>
+      </c>
+      <c r="F24" s="80">
+        <f t="shared" si="6"/>
+        <v>43503</v>
+      </c>
+      <c r="G24" s="60">
+        <v>5</v>
+      </c>
+      <c r="H24" s="61">
+        <v>0</v>
+      </c>
+      <c r="I24" s="62">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="77"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+      <c r="AK24" s="83"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
+      <c r="AN24" s="83"/>
+      <c r="AO24" s="83"/>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="83"/>
+      <c r="AR24" s="83"/>
+      <c r="AS24" s="83"/>
       <c r="AT24" s="16"/>
       <c r="AU24" s="16"/>
       <c r="AV24" s="16"/>
@@ -5568,52 +5577,71 @@
       <c r="BE24" s="16"/>
       <c r="BF24" s="16"/>
     </row>
-    <row r="25" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="16"/>
-      <c r="AN25" s="16"/>
-      <c r="AO25" s="16"/>
-      <c r="AP25" s="16"/>
-      <c r="AQ25" s="16"/>
-      <c r="AR25" s="16"/>
-      <c r="AS25" s="16"/>
+    <row r="25" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B25" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="103"/>
+      <c r="E25" s="79">
+        <v>43504</v>
+      </c>
+      <c r="F25" s="80">
+        <f t="shared" si="6"/>
+        <v>43506</v>
+      </c>
+      <c r="G25" s="60">
+        <v>3</v>
+      </c>
+      <c r="H25" s="61">
+        <v>0</v>
+      </c>
+      <c r="I25" s="62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="77"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="83"/>
+      <c r="AN25" s="83"/>
+      <c r="AO25" s="83"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="83"/>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="83"/>
       <c r="AT25" s="16"/>
       <c r="AU25" s="16"/>
       <c r="AV25" s="16"/>
@@ -5808,7 +5836,7 @@
       <c r="BE28" s="16"/>
       <c r="BF28" s="16"/>
     </row>
-    <row r="29" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -5868,7 +5896,7 @@
       <c r="BE29" s="16"/>
       <c r="BF29" s="16"/>
     </row>
-    <row r="30" spans="1:58" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -5974,149 +6002,201 @@
       <c r="AQ31" s="16"/>
       <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
+      <c r="AT31" s="16"/>
+      <c r="AU31" s="16"/>
+      <c r="AV31" s="16"/>
+      <c r="AW31" s="16"/>
+      <c r="AX31" s="16"/>
+      <c r="AY31" s="16"/>
+      <c r="AZ31" s="16"/>
+      <c r="BA31" s="16"/>
+      <c r="BB31" s="16"/>
+      <c r="BC31" s="16"/>
+      <c r="BD31" s="16"/>
+      <c r="BE31" s="16"/>
+      <c r="BF31" s="16"/>
     </row>
     <row r="32" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-    </row>
-    <row r="33" spans="1:66" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-    </row>
-    <row r="34" spans="1:66" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-    </row>
-    <row r="35" spans="1:66" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="16"/>
+      <c r="AS32" s="16"/>
+      <c r="AT32" s="16"/>
+      <c r="AU32" s="16"/>
+      <c r="AV32" s="16"/>
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="16"/>
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="16"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="16"/>
+      <c r="BE32" s="16"/>
+      <c r="BF32" s="16"/>
+    </row>
+    <row r="33" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="16"/>
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="16"/>
+      <c r="BB33" s="16"/>
+      <c r="BC33" s="16"/>
+      <c r="BD33" s="16"/>
+      <c r="BE33" s="16"/>
+      <c r="BF33" s="16"/>
+    </row>
+    <row r="34" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="16"/>
+      <c r="AU34" s="16"/>
+      <c r="AV34" s="16"/>
+      <c r="AW34" s="16"/>
+      <c r="AX34" s="16"/>
+      <c r="AY34" s="16"/>
+      <c r="AZ34" s="16"/>
+      <c r="BA34" s="16"/>
+      <c r="BB34" s="16"/>
+      <c r="BC34" s="16"/>
+      <c r="BD34" s="16"/>
+      <c r="BE34" s="16"/>
+      <c r="BF34" s="16"/>
+    </row>
+    <row r="35" spans="1:58" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6162,8 +6242,21 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
-    </row>
-    <row r="36" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
+      <c r="BF35" s="16"/>
+    </row>
+    <row r="36" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6210,7 +6303,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6257,7 +6350,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
     </row>
-    <row r="38" spans="1:66" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6304,7 +6397,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
     </row>
-    <row r="39" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6351,7 +6444,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
     </row>
-    <row r="40" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6398,7 +6491,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6445,7 +6538,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6492,7 +6585,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6539,7 +6632,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
     </row>
-    <row r="44" spans="1:66" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6585,37 +6678,266 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
-      <c r="AU44" s="1"/>
-      <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
-      <c r="AX44" s="1"/>
-      <c r="AY44" s="1"/>
-      <c r="AZ44" s="1"/>
-      <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
-      <c r="BC44" s="1"/>
-      <c r="BD44" s="1"/>
-      <c r="BE44" s="1"/>
-      <c r="BF44" s="1"/>
-      <c r="BG44" s="30"/>
-      <c r="BH44" s="30"/>
-      <c r="BI44" s="30"/>
-      <c r="BJ44" s="30"/>
-      <c r="BK44" s="30"/>
-      <c r="BL44" s="30"/>
-      <c r="BM44" s="30"/>
-      <c r="BN44" s="30"/>
+    </row>
+    <row r="45" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+    </row>
+    <row r="46" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+    </row>
+    <row r="47" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+    </row>
+    <row r="48" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+    </row>
+    <row r="49" spans="1:66" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="30"/>
+      <c r="BH49" s="30"/>
+      <c r="BI49" s="30"/>
+      <c r="BJ49" s="30"/>
+      <c r="BK49" s="30"/>
+      <c r="BL49" s="30"/>
+      <c r="BM49" s="30"/>
+      <c r="BN49" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="13">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="AM5:AS5"/>
@@ -6623,9 +6945,15 @@
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H31">
+  <conditionalFormatting sqref="H8:H34">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6644,7 +6972,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:AS31">
+  <conditionalFormatting sqref="K8:AS34">
     <cfRule type="expression" dxfId="2" priority="48">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -6652,7 +6980,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:AS31">
+  <conditionalFormatting sqref="K6:AS34">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -6667,8 +6995,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E13 E20 G13:H13 G20:H20 H17 H16 H21:H22" unlockedFormula="1"/>
-    <ignoredError sqref="A20 A13" formula="1"/>
+    <ignoredError sqref="H9 E13 E23 G13:H13 G23:H23 H22 H21 H24:H25" unlockedFormula="1"/>
+    <ignoredError sqref="A23 A13" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -6716,7 +7044,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H31</xm:sqref>
+          <xm:sqref>H8:H34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene\Documents\GitHub\group3_contactmanager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20359659-3527-4079-A40D-5EAAA7C921B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18623660-AAAE-4806-BB9A-E582DA491E35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="9576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
   <si>
     <t>WBS</t>
   </si>
@@ -1607,6 +1607,39 @@
   </si>
   <si>
     <t>SQL testing</t>
+  </si>
+  <si>
+    <t>Create UML</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Ensure functionality</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Edit/ensure correctness of pages</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Add pages to server</t>
+  </si>
+  <si>
+    <t>Irene &amp; Dylan</t>
+  </si>
+  <si>
+    <t>Work on JSON to ensure JS/PHP communication</t>
+  </si>
+  <si>
+    <t>Matthew, Dylan, &amp; Bryan</t>
   </si>
 </sst>
 </file>
@@ -2843,34 +2876,34 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3054,14 +3087,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
@@ -3703,17 +3736,17 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN49"/>
+  <dimension ref="A1:BN54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
@@ -3735,29 +3768,29 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="I1" s="105"/>
-      <c r="K1" s="149" t="s">
+      <c r="K1" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -3802,11 +3835,11 @@
       <c r="B4" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="145">
+      <c r="C4" s="149">
         <v>43479</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="87"/>
       <c r="G4" s="90" t="s">
         <v>68</v>
@@ -3816,56 +3849,56 @@
       </c>
       <c r="I4" s="88"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="142" t="str">
+      <c r="K4" s="141" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="142" t="str">
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="141" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="142" t="str">
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="141" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="142" t="str">
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="141" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="142" t="str">
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="142"/>
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="142"/>
+      <c r="AK4" s="142"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="141" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="144"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="142"/>
+      <c r="AP4" s="142"/>
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="143"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
@@ -3893,66 +3926,66 @@
       <c r="B5" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
       <c r="J5" s="48"/>
-      <c r="K5" s="146">
+      <c r="K5" s="144">
         <f>K6</f>
         <v>43479</v>
       </c>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="146">
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="144">
         <f>R6</f>
         <v>43486</v>
       </c>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="146">
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="144">
         <f>Y6</f>
         <v>43493</v>
       </c>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="146">
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="144">
         <f>AF6</f>
         <v>43500</v>
       </c>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="146">
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="144">
         <f>AM6</f>
         <v>43507</v>
       </c>
-      <c r="AN5" s="147"/>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="148"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="146"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
@@ -4336,7 +4369,7 @@
       <c r="G8" s="71"/>
       <c r="H8" s="72"/>
       <c r="I8" s="73" t="str">
-        <f t="shared" ref="I8:I25" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I30" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="76"/>
@@ -4484,7 +4517,7 @@
         <v>43479</v>
       </c>
       <c r="F10" s="80">
-        <f t="shared" ref="F10:F25" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F30" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>43479</v>
       </c>
       <c r="G10" s="60">
@@ -4792,17 +4825,17 @@
       </c>
       <c r="F14" s="80">
         <f t="shared" si="6"/>
-        <v>43492</v>
+        <v>43481</v>
       </c>
       <c r="G14" s="60">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H14" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="62">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J14" s="77"/>
       <c r="K14" s="83"/>
@@ -4865,10 +4898,19 @@
         <v>155</v>
       </c>
       <c r="D15" s="103"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="E15" s="79">
+        <v>43482</v>
+      </c>
+      <c r="F15" s="80">
+        <f t="shared" ref="F15:F18" si="7">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+        <v>43492</v>
+      </c>
+      <c r="G15" s="60">
+        <v>11</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="62"/>
       <c r="J15" s="77"/>
       <c r="K15" s="83"/>
@@ -4931,10 +4973,19 @@
         <v>159</v>
       </c>
       <c r="D16" s="103"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
+      <c r="E16" s="79">
+        <v>43482</v>
+      </c>
+      <c r="F16" s="80">
+        <f t="shared" si="7"/>
+        <v>43492</v>
+      </c>
+      <c r="G16" s="60">
+        <v>11</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.5</v>
+      </c>
       <c r="I16" s="62"/>
       <c r="J16" s="77"/>
       <c r="K16" s="83"/>
@@ -4997,10 +5048,19 @@
         <v>149</v>
       </c>
       <c r="D17" s="103"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
+      <c r="E17" s="79">
+        <v>43482</v>
+      </c>
+      <c r="F17" s="80">
+        <f t="shared" ref="F17" si="8">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
+        <v>43483</v>
+      </c>
+      <c r="G17" s="60">
+        <v>2</v>
+      </c>
+      <c r="H17" s="61">
+        <v>1</v>
+      </c>
       <c r="I17" s="62"/>
       <c r="J17" s="77"/>
       <c r="K17" s="83"/>
@@ -5063,10 +5123,19 @@
         <v>149</v>
       </c>
       <c r="D18" s="103"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
+      <c r="E18" s="79">
+        <v>43482</v>
+      </c>
+      <c r="F18" s="80">
+        <f t="shared" si="7"/>
+        <v>43483</v>
+      </c>
+      <c r="G18" s="60">
+        <v>2</v>
+      </c>
+      <c r="H18" s="61">
+        <v>1</v>
+      </c>
       <c r="I18" s="62"/>
       <c r="J18" s="77"/>
       <c r="K18" s="83"/>
@@ -5272,34 +5341,30 @@
       <c r="BF20" s="16"/>
     </row>
     <row r="21" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+      <c r="A21" s="58" t="s">
+        <v>170</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="79">
-        <v>43488</v>
+        <v>43489</v>
       </c>
       <c r="F21" s="80">
         <f t="shared" si="6"/>
-        <v>43493</v>
+        <v>43490</v>
       </c>
       <c r="G21" s="60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H21" s="61">
-        <v>0</v>
-      </c>
-      <c r="I21" s="62">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" s="62"/>
       <c r="J21" s="77"/>
       <c r="K21" s="83"/>
       <c r="L21" s="83"/>
@@ -5351,33 +5416,30 @@
       <c r="BF21" s="16"/>
     </row>
     <row r="22" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>2.5</v>
+      <c r="A22" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D22" s="103"/>
       <c r="E22" s="79">
-        <v>43492</v>
+        <v>43489</v>
       </c>
       <c r="F22" s="80">
         <f t="shared" si="6"/>
-        <v>43498</v>
+        <v>43490</v>
       </c>
       <c r="G22" s="60">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H22" s="61">
-        <v>0</v>
-      </c>
-      <c r="I22" s="62">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" s="62"/>
       <c r="J22" s="77"/>
       <c r="K22" s="83"/>
       <c r="L22" s="83"/>
@@ -5428,62 +5490,71 @@
       <c r="BE22" s="16"/>
       <c r="BF22" s="16"/>
     </row>
-    <row r="23" spans="1:58" s="53" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="23" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.4</v>
+      </c>
+      <c r="B23" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="103"/>
+      <c r="E23" s="79">
+        <v>43488</v>
+      </c>
+      <c r="F23" s="80">
+        <f t="shared" si="6"/>
+        <v>43492</v>
+      </c>
+      <c r="G23" s="60">
+        <v>5</v>
+      </c>
+      <c r="H23" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="62">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J23" s="78"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="85"/>
-      <c r="AM23" s="85"/>
-      <c r="AN23" s="85"/>
-      <c r="AO23" s="85"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="85"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="85"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="83"/>
+      <c r="AN23" s="83"/>
+      <c r="AO23" s="83"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="83"/>
+      <c r="AR23" s="83"/>
+      <c r="AS23" s="83"/>
       <c r="AT23" s="16"/>
       <c r="AU23" s="16"/>
       <c r="AV23" s="16"/>
@@ -5499,34 +5570,30 @@
       <c r="BF23" s="16"/>
     </row>
     <row r="24" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+      <c r="A24" s="58" t="s">
+        <v>167</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D24" s="103"/>
       <c r="E24" s="79">
-        <v>43499</v>
+        <v>43491</v>
       </c>
       <c r="F24" s="80">
         <f t="shared" si="6"/>
-        <v>43503</v>
+        <v>43493</v>
       </c>
       <c r="G24" s="60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24" s="61">
         <v>0</v>
       </c>
-      <c r="I24" s="62">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
+      <c r="I24" s="62"/>
       <c r="J24" s="77"/>
       <c r="K24" s="83"/>
       <c r="L24" s="83"/>
@@ -5578,34 +5645,30 @@
       <c r="BF24" s="16"/>
     </row>
     <row r="25" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+      <c r="A25" s="58">
+        <v>2.5</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D25" s="103"/>
       <c r="E25" s="79">
-        <v>43504</v>
+        <v>43490</v>
       </c>
       <c r="F25" s="80">
         <f t="shared" si="6"/>
-        <v>43506</v>
+        <v>43493</v>
       </c>
       <c r="G25" s="60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="61">
         <v>0</v>
       </c>
-      <c r="I25" s="62">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="I25" s="62"/>
       <c r="J25" s="77"/>
       <c r="K25" s="83"/>
       <c r="L25" s="83"/>
@@ -5656,52 +5719,67 @@
       <c r="BE25" s="16"/>
       <c r="BF25" s="16"/>
     </row>
-    <row r="26" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="16"/>
-      <c r="AP26" s="16"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="16"/>
-      <c r="AS26" s="16"/>
+    <row r="26" spans="1:58" s="59" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
+        <v>2.6</v>
+      </c>
+      <c r="B26" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="103"/>
+      <c r="E26" s="79">
+        <v>43493</v>
+      </c>
+      <c r="F26" s="80">
+        <f t="shared" si="6"/>
+        <v>43496</v>
+      </c>
+      <c r="G26" s="60">
+        <v>4</v>
+      </c>
+      <c r="H26" s="61">
+        <v>0</v>
+      </c>
+      <c r="I26" s="62"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="83"/>
+      <c r="AF26" s="83"/>
+      <c r="AG26" s="83"/>
+      <c r="AH26" s="83"/>
+      <c r="AI26" s="83"/>
+      <c r="AJ26" s="83"/>
+      <c r="AK26" s="83"/>
+      <c r="AL26" s="83"/>
+      <c r="AM26" s="83"/>
+      <c r="AN26" s="83"/>
+      <c r="AO26" s="83"/>
+      <c r="AP26" s="83"/>
+      <c r="AQ26" s="83"/>
+      <c r="AR26" s="83"/>
+      <c r="AS26" s="83"/>
       <c r="AT26" s="16"/>
       <c r="AU26" s="16"/>
       <c r="AV26" s="16"/>
@@ -5716,52 +5794,70 @@
       <c r="BE26" s="16"/>
       <c r="BF26" s="16"/>
     </row>
-    <row r="27" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="16"/>
-      <c r="AS27" s="16"/>
+    <row r="27" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="58">
+        <v>2.7</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="103"/>
+      <c r="E27" s="79">
+        <v>43493</v>
+      </c>
+      <c r="F27" s="80">
+        <f t="shared" si="6"/>
+        <v>43498</v>
+      </c>
+      <c r="G27" s="60">
+        <v>6</v>
+      </c>
+      <c r="H27" s="61">
+        <v>0</v>
+      </c>
+      <c r="I27" s="62">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J27" s="77"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
+      <c r="AK27" s="83"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="83"/>
+      <c r="AO27" s="83"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="83"/>
+      <c r="AR27" s="83"/>
+      <c r="AS27" s="83"/>
       <c r="AT27" s="16"/>
       <c r="AU27" s="16"/>
       <c r="AV27" s="16"/>
@@ -5776,52 +5872,62 @@
       <c r="BE27" s="16"/>
       <c r="BF27" s="16"/>
     </row>
-    <row r="28" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="16"/>
-      <c r="AP28" s="16"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="16"/>
+    <row r="28" spans="1:58" s="53" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J28" s="78"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="85"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
+      <c r="AI28" s="85"/>
+      <c r="AJ28" s="85"/>
+      <c r="AK28" s="85"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="85"/>
+      <c r="AN28" s="85"/>
+      <c r="AO28" s="85"/>
+      <c r="AP28" s="85"/>
+      <c r="AQ28" s="85"/>
+      <c r="AR28" s="85"/>
+      <c r="AS28" s="85"/>
       <c r="AT28" s="16"/>
       <c r="AU28" s="16"/>
       <c r="AV28" s="16"/>
@@ -5836,52 +5942,71 @@
       <c r="BE28" s="16"/>
       <c r="BF28" s="16"/>
     </row>
-    <row r="29" spans="1:58" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="16"/>
-      <c r="AO29" s="16"/>
-      <c r="AP29" s="16"/>
-      <c r="AQ29" s="16"/>
-      <c r="AR29" s="16"/>
-      <c r="AS29" s="16"/>
+    <row r="29" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="103"/>
+      <c r="E29" s="79">
+        <v>43499</v>
+      </c>
+      <c r="F29" s="80">
+        <f t="shared" si="6"/>
+        <v>43503</v>
+      </c>
+      <c r="G29" s="60">
+        <v>5</v>
+      </c>
+      <c r="H29" s="61">
+        <v>0</v>
+      </c>
+      <c r="I29" s="62">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="77"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="83"/>
+      <c r="AO29" s="83"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
       <c r="AT29" s="16"/>
       <c r="AU29" s="16"/>
       <c r="AV29" s="16"/>
@@ -5896,52 +6021,71 @@
       <c r="BE29" s="16"/>
       <c r="BF29" s="16"/>
     </row>
-    <row r="30" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="16"/>
-      <c r="AS30" s="16"/>
+    <row r="30" spans="1:58" s="59" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B30" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="103"/>
+      <c r="E30" s="79">
+        <v>43504</v>
+      </c>
+      <c r="F30" s="80">
+        <f t="shared" si="6"/>
+        <v>43506</v>
+      </c>
+      <c r="G30" s="60">
+        <v>3</v>
+      </c>
+      <c r="H30" s="61">
+        <v>0</v>
+      </c>
+      <c r="I30" s="62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="77"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="83"/>
+      <c r="AF30" s="83"/>
+      <c r="AG30" s="83"/>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="83"/>
+      <c r="AJ30" s="83"/>
+      <c r="AK30" s="83"/>
+      <c r="AL30" s="83"/>
+      <c r="AM30" s="83"/>
+      <c r="AN30" s="83"/>
+      <c r="AO30" s="83"/>
+      <c r="AP30" s="83"/>
+      <c r="AQ30" s="83"/>
+      <c r="AR30" s="83"/>
+      <c r="AS30" s="83"/>
       <c r="AT30" s="16"/>
       <c r="AU30" s="16"/>
       <c r="AV30" s="16"/>
@@ -6136,7 +6280,7 @@
       <c r="BE33" s="16"/>
       <c r="BF33" s="16"/>
     </row>
-    <row r="34" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -6196,52 +6340,52 @@
       <c r="BE34" s="16"/>
       <c r="BF34" s="16"/>
     </row>
-    <row r="35" spans="1:58" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
+    <row r="35" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
       <c r="AT35" s="16"/>
       <c r="AU35" s="16"/>
       <c r="AV35" s="16"/>
@@ -6257,194 +6401,246 @@
       <c r="BF35" s="16"/>
     </row>
     <row r="36" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
+      <c r="AW36" s="16"/>
+      <c r="AX36" s="16"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="16"/>
+      <c r="BB36" s="16"/>
+      <c r="BC36" s="16"/>
+      <c r="BD36" s="16"/>
+      <c r="BE36" s="16"/>
+      <c r="BF36" s="16"/>
     </row>
     <row r="37" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="16"/>
+      <c r="AQ37" s="16"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="16"/>
+      <c r="AT37" s="16"/>
+      <c r="AU37" s="16"/>
+      <c r="AV37" s="16"/>
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="16"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="16"/>
+      <c r="BB37" s="16"/>
+      <c r="BC37" s="16"/>
+      <c r="BD37" s="16"/>
+      <c r="BE37" s="16"/>
+      <c r="BF37" s="16"/>
     </row>
     <row r="38" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
+      <c r="AW38" s="16"/>
+      <c r="AX38" s="16"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
+      <c r="BC38" s="16"/>
+      <c r="BD38" s="16"/>
+      <c r="BE38" s="16"/>
+      <c r="BF38" s="16"/>
     </row>
     <row r="39" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-    </row>
-    <row r="40" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
+      <c r="BC39" s="16"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
+      <c r="BF39" s="16"/>
+    </row>
+    <row r="40" spans="1:58" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6490,8 +6686,21 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
-    </row>
-    <row r="41" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT40" s="16"/>
+      <c r="AU40" s="16"/>
+      <c r="AV40" s="16"/>
+      <c r="AW40" s="16"/>
+      <c r="AX40" s="16"/>
+      <c r="AY40" s="16"/>
+      <c r="AZ40" s="16"/>
+      <c r="BA40" s="16"/>
+      <c r="BB40" s="16"/>
+      <c r="BC40" s="16"/>
+      <c r="BD40" s="16"/>
+      <c r="BE40" s="16"/>
+      <c r="BF40" s="16"/>
+    </row>
+    <row r="41" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6538,7 +6747,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6585,7 +6794,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="1:58" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6632,7 +6841,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
     </row>
-    <row r="44" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6679,7 +6888,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
     </row>
-    <row r="45" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6820,7 +7029,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
     </row>
-    <row r="48" spans="1:58" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6867,7 +7076,7 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
     </row>
-    <row r="49" spans="1:66" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6913,31 +7122,272 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
-      <c r="BC49" s="1"/>
-      <c r="BD49" s="1"/>
-      <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
-      <c r="BG49" s="30"/>
-      <c r="BH49" s="30"/>
-      <c r="BI49" s="30"/>
-      <c r="BJ49" s="30"/>
-      <c r="BK49" s="30"/>
-      <c r="BL49" s="30"/>
-      <c r="BM49" s="30"/>
-      <c r="BN49" s="30"/>
+    </row>
+    <row r="50" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+    </row>
+    <row r="51" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+    </row>
+    <row r="52" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+    </row>
+    <row r="53" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+    </row>
+    <row r="54" spans="1:66" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="30"/>
+      <c r="BH54" s="30"/>
+      <c r="BI54" s="30"/>
+      <c r="BJ54" s="30"/>
+      <c r="BK54" s="30"/>
+      <c r="BL54" s="30"/>
+      <c r="BM54" s="30"/>
+      <c r="BN54" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="13">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="AM5:AS5"/>
@@ -6945,16 +7395,10 @@
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H34">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H8:H14 H19:H39">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6968,21 +7412,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:AS7">
-    <cfRule type="expression" dxfId="3" priority="45">
+    <cfRule type="expression" dxfId="3" priority="47">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:AS34">
-    <cfRule type="expression" dxfId="2" priority="48">
+  <conditionalFormatting sqref="K8:AS39">
+    <cfRule type="expression" dxfId="2" priority="50">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="1" priority="51">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:AS34">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="K6:AS39">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H16 H18">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{06620957-41DA-4597-986F-CB78B4F68954}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C02376C-B123-4C31-BC41-13E8F75854E2}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6995,8 +7467,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E13 E23 G13:H13 G23:H23 H22 H21 H24:H25" unlockedFormula="1"/>
-    <ignoredError sqref="A23 A13" formula="1"/>
+    <ignoredError sqref="H9 E13 E28 G13:H13 G28:H28 H27 H29:H30" unlockedFormula="1"/>
+    <ignoredError sqref="A28 A13" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -7044,7 +7516,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H34</xm:sqref>
+          <xm:sqref>H8:H14 H19:H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{06620957-41DA-4597-986F-CB78B4F68954}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H15:H16 H18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3C02376C-B123-4C31-BC41-13E8F75854E2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene\Documents\GitHub\group3_contactmanager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18623660-AAAE-4806-BB9A-E582DA491E35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EAE764D-3E8B-4EEF-914D-2611EE39F02C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="9576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2876,34 +2876,34 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3739,8 +3739,8 @@
   <dimension ref="A1:BN54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="7" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3768,29 +3768,29 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="I1" s="105"/>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -3835,11 +3835,11 @@
       <c r="B4" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="149">
+      <c r="C4" s="145">
         <v>43479</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="87"/>
       <c r="G4" s="90" t="s">
         <v>68</v>
@@ -3849,56 +3849,56 @@
       </c>
       <c r="I4" s="88"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="141" t="str">
+      <c r="K4" s="142" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="141" t="str">
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="142" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="141" t="str">
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="142" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="141" t="str">
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="142" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="141" t="str">
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+      <c r="AI4" s="143"/>
+      <c r="AJ4" s="143"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="142" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="142"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="143"/>
+      <c r="AN4" s="143"/>
+      <c r="AO4" s="143"/>
+      <c r="AP4" s="143"/>
+      <c r="AQ4" s="143"/>
+      <c r="AR4" s="143"/>
+      <c r="AS4" s="144"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
@@ -3926,66 +3926,66 @@
       <c r="B5" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
       <c r="J5" s="48"/>
-      <c r="K5" s="144">
+      <c r="K5" s="146">
         <f>K6</f>
         <v>43479</v>
       </c>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="144">
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="146">
         <f>R6</f>
         <v>43486</v>
       </c>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="144">
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="146">
         <f>Y6</f>
         <v>43493</v>
       </c>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="144">
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="146">
         <f>AF6</f>
         <v>43500</v>
       </c>
-      <c r="AG5" s="145"/>
-      <c r="AH5" s="145"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="145"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="144">
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="147"/>
+      <c r="AK5" s="147"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="146">
         <f>AM6</f>
         <v>43507</v>
       </c>
-      <c r="AN5" s="145"/>
-      <c r="AO5" s="145"/>
-      <c r="AP5" s="145"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="145"/>
-      <c r="AS5" s="146"/>
+      <c r="AN5" s="147"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="148"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
@@ -4909,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="61">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="77"/>
@@ -4984,7 +4984,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="77"/>
@@ -5666,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I25" s="62"/>
       <c r="J25" s="77"/>
@@ -5951,7 +5951,7 @@
         <v>143</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D29" s="103"/>
       <c r="E29" s="79">
@@ -7382,12 +7382,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="13">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="AM5:AS5"/>
@@ -7395,6 +7389,12 @@
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H14 H19:H39">

--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene\Documents\GitHub\group3_contactmanager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EAE764D-3E8B-4EEF-914D-2611EE39F02C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D005F6D-4E58-4DF7-A082-2A722CD9452B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="9576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2876,34 +2876,34 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3739,8 +3739,8 @@
   <dimension ref="A1:BN54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3768,29 +3768,29 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="I1" s="105"/>
-      <c r="K1" s="149" t="s">
+      <c r="K1" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -3835,11 +3835,11 @@
       <c r="B4" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="145">
+      <c r="C4" s="149">
         <v>43479</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="87"/>
       <c r="G4" s="90" t="s">
         <v>68</v>
@@ -3849,56 +3849,56 @@
       </c>
       <c r="I4" s="88"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="142" t="str">
+      <c r="K4" s="141" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="142" t="str">
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="141" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="142" t="str">
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="141" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="142" t="str">
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="141" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="142" t="str">
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="142"/>
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="142"/>
+      <c r="AK4" s="142"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="141" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="144"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="142"/>
+      <c r="AP4" s="142"/>
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="143"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
@@ -3926,66 +3926,66 @@
       <c r="B5" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
       <c r="J5" s="48"/>
-      <c r="K5" s="146">
+      <c r="K5" s="144">
         <f>K6</f>
         <v>43479</v>
       </c>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="146">
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="144">
         <f>R6</f>
         <v>43486</v>
       </c>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="146">
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="144">
         <f>Y6</f>
         <v>43493</v>
       </c>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="146">
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="144">
         <f>AF6</f>
         <v>43500</v>
       </c>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="146">
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="144">
         <f>AM6</f>
         <v>43507</v>
       </c>
-      <c r="AN5" s="147"/>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="148"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="146"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
@@ -4909,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="61">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="77"/>
@@ -5513,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I23" s="62">
         <f t="shared" si="4"/>
@@ -5591,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="62"/>
       <c r="J24" s="77"/>
@@ -5666,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="61">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I25" s="62"/>
       <c r="J25" s="77"/>
@@ -5741,7 +5741,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="77"/>
@@ -5816,7 +5816,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="62">
         <f t="shared" si="4"/>
@@ -5965,7 +5965,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="62">
         <f t="shared" si="4"/>
@@ -6044,7 +6044,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="62">
         <f t="shared" si="4"/>
@@ -7382,6 +7382,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="13">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="AM5:AS5"/>
@@ -7389,12 +7395,6 @@
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H14 H19:H39">
@@ -7467,7 +7467,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E13 E28 G13:H13 G28:H28 H27 H29:H30" unlockedFormula="1"/>
+    <ignoredError sqref="H9 E13 E28 G13:H13 G28:H28" unlockedFormula="1"/>
     <ignoredError sqref="A28 A13" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
